--- a/workingDirectory/Örnek_2 - Copy.xlsx
+++ b/workingDirectory/Örnek_2 - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="4365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
